--- a/results/pvalue_SIDER_all_indication_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_all_indication_AUPR+AUROC.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.014</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.239</t>
+          <t>15.354</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16.14</t>
+          <t>15.084</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>13.582</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.563</t>
+          <t>4.148</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.739</t>
+          <t>12.002</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
